--- a/Dokumentation/Sprint01.xlsx
+++ b/Dokumentation/Sprint01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="1420" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
+    <workbookView xWindow="34540" yWindow="-1880" windowWidth="25600" windowHeight="15800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Krav</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Slutförd</t>
   </si>
   <si>
-    <t>Ej påbörjad</t>
-  </si>
-  <si>
     <t>Summa</t>
   </si>
   <si>
@@ -76,13 +73,22 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Kommentar efter avslutad sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starten på detta projekt har gått enligt planerna i princip. Givetvis har tiderna inte stämmer helt exakt men förvånansvärt bra i de flesta fall. Något som tog längre tid och som inte riktigt gick som planerat var utvecklingen av en prototyp i Xcode. Det tog först och främst betydligt längre tid att få fram en sådan än jag trott, och sen var det svårt att bestäma var gränsen gick på prototyp och påbörjad utveckling av spelet. Vad jag är nöjd med i denna sprint är hur snabbt det gick att ta fram en idé till spelet och bestämma alla spelregler etc. Kikar jag på skattad tid ser jag att jag redan i början trodde det skulle gå relativt snabbt, men är glad att allt gick som på räls här. </t>
+  </si>
+  <si>
+    <t>SPRINT 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +104,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,16 +137,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F18"/>
+  <dimension ref="A2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -477,9 +500,14 @@
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:6" ht="16" thickBot="1">
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -505,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -522,13 +550,13 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -556,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -590,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -607,33 +635,46 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="D13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <f>SUM(E5:E12)</f>
         <v>19</v>
       </c>
       <c r="F13">
-        <f>SUM(F5:F10)</f>
-        <v>12</v>
+        <f>SUM(F5:F11)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:3" ht="90">
       <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="150">
+      <c r="C22" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
